--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>探测范围</t>
   </si>
@@ -28,18 +28,77 @@
   </si>
   <si>
     <t>探测控制效率</t>
+  </si>
+  <si>
+    <t>文件属性</t>
+  </si>
+  <si>
+    <t>文件名称</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+  </si>
+  <si>
+    <t>评估数据</t>
+  </si>
+  <si>
+    <t>文件版本</t>
+  </si>
+  <si>
+    <t>数据内容</t>
+  </si>
+  <si>
+    <t>指标名称</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>定量数据</t>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定性数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪精度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪控制效率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -67,14 +126,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -352,38 +427,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>424.33539999999999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.44409999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="E7">
         <v>500.91609999999997</v>
       </c>
-      <c r="B2">
+      <c r="F7">
         <v>0.53820000000000001</v>
       </c>
-      <c r="C2">
+      <c r="G7">
         <v>0.9587</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>424.55239999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="E8">
+        <v>494.85120000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>445.62060000000002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.43009999999999998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="E9" s="4">
+        <v>491.94080000000002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>453.93669999999997</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.44919999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="E10" s="4">
+        <v>499.8777</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.44590000000000002</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>448.44290000000001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="E11" s="3">
+        <v>447.20850000000002</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.9083</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <v>447.20850000000002</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.9083</v>
+      </c>
+      <c r="E12" s="3">
+        <v>448.44290000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4">
+        <v>499.8777</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.44590000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="E13" s="2">
+        <v>453.93669999999997</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.44919999999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4">
+        <v>491.94080000000002</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="E14" s="2">
+        <v>445.62060000000002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.43009999999999998</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>494.85120000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="E15" s="1">
+        <v>424.55239999999998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>500.91609999999997</v>
+      </c>
+      <c r="C16">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.9587</v>
+      </c>
+      <c r="E16" s="1">
+        <v>424.33539999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.44409999999999999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
